--- a/data/trans_camb/P37-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P37-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P37-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P37-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,32</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-5,88; 5,41</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 22,82</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 9,92</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18,48; 30,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 6,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,48; 24,68</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>105,19%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32,87%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>206,41%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,79%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-33,1; 43,87</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51,71; 198,03</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; 103,62</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>115,56; 345,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,34; 56,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,38; 212,32</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 12,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 9,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,05; 22,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 9,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 5,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,48; 23,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 9,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 6,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,98; 22,11</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>170,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,15%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,41; 150,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,76; 120,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,54; 275,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,79; 94,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,86; 51,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,65; 236,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,25; 93,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 66,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>114,58; 222,67</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 11,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 9,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 18,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; 5,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 9,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,56; 18,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 6,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 7,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 16,96</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 95,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,34; 79,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,6; 157,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,41; 36,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,02; 57,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,43; 116,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 45,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 48,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,85; 112,56</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 9,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,12; 12,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 26,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 8,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 10,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,73; 23,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 8,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 10,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,5; 23,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,19%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 99,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,78; 128,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,99; 279,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; 62,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 74,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,08; 166,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,43; 63,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,31; 79,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,25; 190,63</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 8,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,99; 3,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 23,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,16; 7,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,4; 1,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,32; 25,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 5,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,76; 0,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,08; 22,52</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,58%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,86; 78,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,27; 33,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,56; 199,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,59; 46,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,51; 8,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,51; 171,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,9; 36,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,7; 6,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,1; 152,85</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,39</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 14,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 12,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,12; 19,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 12,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 12,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,75; 25,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,22; 11,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 10,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,94; 20,71</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,4%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,7%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,65; 136,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 113,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,15; 186,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,34; 83,69</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 87,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,43; 177,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,01; 82,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,57; 80,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,34; 157,75</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 6,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 5,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,0; 22,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 4,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 6,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,84; 48,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 3,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 4,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,46; 39,43</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,15%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,59%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,04%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,07%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; 47,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,69; 45,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,78; 174,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,95; 27,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,18; 44,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,88; 312,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; 27,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 33,07</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,89; 258,2</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,74</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,63</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,7</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 4,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 0,37</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,74; 25,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 4,59</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 2,55</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,02; 30,42</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 3,43</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 0,38</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,69; 26,93</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,07%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,15%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,92%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,82%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,95%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,56; 35,58</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,6; 3,82</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,24; 190,8</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,82; 34,66</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,11; 19,33</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>126,73; 239,5</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 25,53</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,31; 3,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>121,28; 198,18</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,44</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,28</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 5,42</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 3,57</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,6; 19,88</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 4,2</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 3,36</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,77; 28,3</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 4,3</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,83</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,64; 24,14</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,03%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,55%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,3%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,15; 41,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 27,78</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>105,02; 151,89</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 27,48</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 22,43</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>119,25; 184,06</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,45; 30,45</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 19,85</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,29; 164,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P37-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P37-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>13,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,01</t>
+          <t>24,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,32</t>
+          <t>18,78</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 8,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 22,82</t>
+          <t>7,18; 21,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 10,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,48; 30,57</t>
+          <t>17,6; 29,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 7,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,48; 24,68</t>
+          <t>13,66; 23,32</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>105,19%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>206,41%</t>
+          <t>199,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>150,79%</t>
+          <t>139,39%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,64; 74,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,71; 198,03</t>
+          <t>41,24; 186,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; 106,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>115,56; 345,25</t>
+          <t>107,67; 335,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 65,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,38; 212,32</t>
+          <t>82,7; 199,63</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,61</t>
+          <t>16,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,15</t>
+          <t>18,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,43</t>
+          <t>17,74</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 22,8</t>
+          <t>11,06; 21,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 23,55</t>
+          <t>14,31; 23,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,11</t>
+          <t>14,32; 21,56</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>170,58%</t>
+          <t>160,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>154,59%</t>
+          <t>152,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>162,15%</t>
+          <t>156,07%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,54; 275,89</t>
+          <t>86,29; 264,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,65; 236,26</t>
+          <t>95,43; 231,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>114,58; 222,67</t>
+          <t>109,74; 215,47</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,1</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,68</t>
+          <t>12,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,96</t>
+          <t>12,35</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 18,74</t>
+          <t>6,32; 17,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 18,22</t>
+          <t>6,1; 17,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 16,96</t>
+          <t>8,01; 16,36</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>72,47%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,6; 157,02</t>
+          <t>32,4; 149,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,43; 116,35</t>
+          <t>27,66; 113,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,85; 112,56</t>
+          <t>43,17; 108,72</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,81</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,42</t>
+          <t>15,85</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 9,71</t>
+          <t>0,21; 10,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,46; 26,99</t>
+          <t>13,06; 26,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 8,64</t>
+          <t>1,89; 12,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,73; 23,35</t>
+          <t>-0,8; 20,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 8,02</t>
+          <t>2,64; 10,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,4</t>
+          <t>7,0; 21,23</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>172,4%</t>
+          <t>167,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>107,86%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>135,19%</t>
+          <t>110,3%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 99,61</t>
+          <t>1,2; 115,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91,99; 279,22</t>
+          <t>88,1; 273,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 62,45</t>
+          <t>9,07; 90,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>55,08; 166,16</t>
+          <t>-2,2; 131,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 63,37</t>
+          <t>16,2; 81,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>89,25; 190,63</t>
+          <t>49,07; 164,84</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,62</t>
+          <t>19,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>17,69</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,02; 23,31</t>
+          <t>8,07; 23,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,32; 25,68</t>
+          <t>11,84; 26,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,08; 22,52</t>
+          <t>12,32; 22,68</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>101,49%</t>
+          <t>101,87%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>99,88%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>42,56; 199,63</t>
+          <t>42,87; 200,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>45,51; 171,14</t>
+          <t>47,16; 175,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>57,1; 152,85</t>
+          <t>58,25; 155,01</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,39</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>16,2</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,12; 19,36</t>
+          <t>7,66; 18,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,75; 25,28</t>
+          <t>11,81; 25,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,94; 20,71</t>
+          <t>11,54; 20,34</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>105,4%</t>
+          <t>101,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>110,28%</t>
+          <t>110,42%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>107,7%</t>
+          <t>105,44%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47,15; 186,4</t>
+          <t>44,91; 181,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>54,43; 177,42</t>
+          <t>54,65; 178,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>68,34; 157,75</t>
+          <t>66,22; 155,26</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>28,19</t>
+          <t>34,48</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>23,74</t>
+          <t>27,02</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,0; 22,93</t>
+          <t>11,84; 21,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>17,84; 48,93</t>
+          <t>17,47; 60,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,46; 39,43</t>
+          <t>16,71; 49,79</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>118,15%</t>
+          <t>109,81%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>164,04%</t>
+          <t>200,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>147,07%</t>
+          <t>167,37%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>77,78; 174,09</t>
+          <t>69,68; 163,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>97,88; 312,82</t>
+          <t>96,81; 388,58</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>102,89; 258,2</t>
+          <t>99,86; 348,99</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20,74</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>26,63</t>
+          <t>27,23</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>23,7</t>
+          <t>19,31</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>12,74; 25,25</t>
+          <t>-3,45; 24,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>22,02; 30,42</t>
+          <t>22,61; 30,96</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>19,69; 26,93</t>
+          <t>4,9; 26,51</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>137,15%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>178,82%</t>
+          <t>182,85%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>157,95%</t>
+          <t>128,7%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>79,24; 190,8</t>
+          <t>-19,67; 170,77</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>126,73; 239,5</t>
+          <t>130,28; 244,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>121,28; 198,18</t>
+          <t>33,81; 183,08</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>17,77</t>
+          <t>15,12</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>22,44</t>
+          <t>23,19</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>20,28</t>
+          <t>19,28</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15,6; 19,88</t>
+          <t>8,56; 18,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>19,77; 28,3</t>
+          <t>18,68; 34,08</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>18,64; 24,14</t>
+          <t>16,01; 26,37</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>128,03%</t>
+          <t>108,98%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>141,55%</t>
+          <t>146,28%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>136,3%</t>
+          <t>129,58%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>105,02; 151,89</t>
+          <t>63,78; 134,46</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>119,25; 184,06</t>
+          <t>114,63; 217,53</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>120,29; 164,29</t>
+          <t>104,37; 175,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P37-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P37-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 8,33</t>
+          <t>-3,55; 8,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,41</t>
+          <t>-5,9; 5,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 21,42</t>
+          <t>6,94; 21,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 10,1</t>
+          <t>-1,58; 10,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,92</t>
+          <t>-1,85; 10,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 29,69</t>
+          <t>18,21; 30,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,52</t>
+          <t>-1,76; 7,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,29</t>
+          <t>-2,41; 6,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 23,32</t>
+          <t>13,72; 23,18</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 74,42</t>
+          <t>-20,9; 71,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 43,87</t>
+          <t>-32,82; 47,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,24; 186,44</t>
+          <t>37,43; 182,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 106,09</t>
+          <t>-13,6; 115,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 103,62</t>
+          <t>-13,25; 118,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>107,67; 335,11</t>
+          <t>112,67; 336,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 65,06</t>
+          <t>-11,17; 64,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 56,36</t>
+          <t>-15,26; 54,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,7; 199,63</t>
+          <t>87,81; 209,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 12,61</t>
+          <t>2,79; 12,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 9,8</t>
+          <t>1,33; 10,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 21,8</t>
+          <t>11,45; 22,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 9,49</t>
+          <t>0,43; 9,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,23</t>
+          <t>-3,42; 4,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 23,36</t>
+          <t>14,17; 23,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 9,29</t>
+          <t>2,94; 9,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 6,39</t>
+          <t>0,28; 6,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,32; 21,56</t>
+          <t>14,26; 21,36</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,41; 150,26</t>
+          <t>22,92; 143,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 120,25</t>
+          <t>11,23; 120,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,29; 264,66</t>
+          <t>92,46; 259,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 94,31</t>
+          <t>2,25; 87,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 51,49</t>
+          <t>-25,04; 47,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,43; 231,93</t>
+          <t>91,44; 226,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 93,09</t>
+          <t>22,84; 96,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 66,87</t>
+          <t>1,98; 61,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109,74; 215,47</t>
+          <t>107,36; 216,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 11,84</t>
+          <t>-0,15; 12,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 9,6</t>
+          <t>-1,75; 9,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 17,94</t>
+          <t>6,49; 17,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,74</t>
+          <t>-6,05; 5,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 9,07</t>
+          <t>-4,25; 8,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 17,8</t>
+          <t>6,73; 17,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,81</t>
+          <t>-1,41; 6,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,05</t>
+          <t>-0,99; 7,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 16,36</t>
+          <t>8,09; 16,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 95,35</t>
+          <t>-2,82; 96,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 79,67</t>
+          <t>-10,16; 73,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,4; 149,94</t>
+          <t>35,61; 141,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 36,68</t>
+          <t>-28,11; 37,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 57,66</t>
+          <t>-19,32; 56,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,66; 113,43</t>
+          <t>28,73; 114,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 45,62</t>
+          <t>-7,61; 47,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 48,04</t>
+          <t>-5,03; 50,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,17; 108,72</t>
+          <t>41,82; 113,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 10,81</t>
+          <t>0,77; 11,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 12,28</t>
+          <t>1,91; 12,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,06; 26,58</t>
+          <t>12,88; 27,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 12,75</t>
+          <t>1,11; 13,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,54</t>
+          <t>-1,24; 10,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 20,12</t>
+          <t>-0,48; 20,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,39</t>
+          <t>2,45; 10,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 10,07</t>
+          <t>1,85; 10,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 21,23</t>
+          <t>8,33; 21,4</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 115,27</t>
+          <t>3,32; 120,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,78; 128,85</t>
+          <t>12,33; 129,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,1; 273,63</t>
+          <t>85,7; 278,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,07; 90,07</t>
+          <t>5,09; 96,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 74,12</t>
+          <t>-6,98; 76,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 131,11</t>
+          <t>0,13; 136,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,2; 81,35</t>
+          <t>14,98; 84,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,31; 79,12</t>
+          <t>10,64; 80,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,07; 164,84</t>
+          <t>54,31; 164,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 8,91</t>
+          <t>-6,59; 8,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 3,88</t>
+          <t>-9,14; 4,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,07; 23,37</t>
+          <t>8,07; 23,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 7,25</t>
+          <t>-8,31; 7,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 1,26</t>
+          <t>-13,36; 1,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,84; 26,04</t>
+          <t>11,21; 25,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,43</t>
+          <t>-5,04; 5,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 0,92</t>
+          <t>-9,26; 1,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,32; 22,68</t>
+          <t>12,67; 22,88</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 78,14</t>
+          <t>-34,84; 72,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,27; 33,05</t>
+          <t>-45,37; 47,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>42,87; 200,07</t>
+          <t>41,99; 201,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 46,35</t>
+          <t>-34,83; 48,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,51; 8,62</t>
+          <t>-56,88; 9,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>47,16; 175,03</t>
+          <t>41,1; 166,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 36,56</t>
+          <t>-24,64; 35,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 6,76</t>
+          <t>-44,73; 8,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>58,25; 155,01</t>
+          <t>60,0; 158,27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,9; 14,03</t>
+          <t>1,06; 13,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,2; 12,14</t>
+          <t>-0,62; 12,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,66; 18,8</t>
+          <t>7,39; 18,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 12,27</t>
+          <t>-1,37; 12,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 12,73</t>
+          <t>-1,68; 12,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,81; 25,31</t>
+          <t>12,9; 25,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,22; 11,37</t>
+          <t>2,01; 11,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,9</t>
+          <t>1,66; 10,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,54; 20,34</t>
+          <t>11,56; 20,6</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,65; 136,01</t>
+          <t>6,62; 135,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 113,7</t>
+          <t>-4,35; 130,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>44,91; 181,59</t>
+          <t>45,36; 182,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 83,69</t>
+          <t>-6,99; 86,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 87,14</t>
+          <t>-8,26; 85,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>54,65; 178,0</t>
+          <t>57,39; 190,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>12,01; 82,44</t>
+          <t>11,45; 87,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,57; 80,18</t>
+          <t>8,84; 79,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>66,22; 155,26</t>
+          <t>64,56; 156,01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,18</t>
+          <t>-1,99; 6,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,65</t>
+          <t>-2,85; 5,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,84; 21,65</t>
+          <t>11,47; 21,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,1</t>
+          <t>-4,89; 3,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,75</t>
+          <t>-2,06; 6,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>17,47; 60,21</t>
+          <t>17,74; 56,22</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,94</t>
+          <t>-2,21; 3,74</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,7</t>
+          <t>-0,96; 4,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>16,71; 49,79</t>
+          <t>16,85; 50,05</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 47,49</t>
+          <t>-12,46; 45,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 45,46</t>
+          <t>-17,38; 42,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>69,68; 163,47</t>
+          <t>66,3; 160,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 27,2</t>
+          <t>-25,26; 24,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 44,84</t>
+          <t>-10,89; 45,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>96,81; 388,58</t>
+          <t>98,92; 386,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 27,58</t>
+          <t>-12,25; 25,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 33,07</t>
+          <t>-5,39; 33,38</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>99,86; 348,99</t>
+          <t>102,03; 346,26</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,67</t>
+          <t>-3,15; 4,92</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 0,37</t>
+          <t>-6,41; 0,23</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 24,46</t>
+          <t>-4,39; 24,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,59</t>
+          <t>-2,72; 4,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,55</t>
+          <t>-4,65; 2,92</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>22,61; 30,96</t>
+          <t>23,19; 31,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,43</t>
+          <t>-1,51; 3,9</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,38</t>
+          <t>-4,6; 0,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>4,9; 26,51</t>
+          <t>6,68; 26,03</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 35,58</t>
+          <t>-18,84; 35,89</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 3,82</t>
+          <t>-38,6; 1,82</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 170,77</t>
+          <t>-26,13; 172,94</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 34,66</t>
+          <t>-16,14; 39,25</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 19,33</t>
+          <t>-28,16; 21,84</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>130,28; 244,79</t>
+          <t>133,72; 240,42</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 25,53</t>
+          <t>-9,3; 28,11</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 3,71</t>
+          <t>-28,16; 2,91</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>33,81; 183,08</t>
+          <t>42,61; 179,89</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,42</t>
+          <t>1,81; 5,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,57</t>
+          <t>0,16; 3,54</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8,56; 18,03</t>
+          <t>8,72; 18,08</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,2</t>
+          <t>0,42; 4,21</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,36</t>
+          <t>-0,46; 3,34</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>18,68; 34,08</t>
+          <t>19,03; 34,67</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,3</t>
+          <t>1,83; 4,41</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,83</t>
+          <t>0,35; 2,85</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>16,01; 26,37</t>
+          <t>15,72; 25,55</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>12,15; 41,44</t>
+          <t>12,08; 41,7</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>2,07; 27,78</t>
+          <t>1,03; 27,47</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>63,78; 134,46</t>
+          <t>64,99; 135,45</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>3,08; 27,48</t>
+          <t>2,69; 28,77</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 22,43</t>
+          <t>-2,84; 22,62</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>114,63; 217,53</t>
+          <t>117,58; 225,88</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>11,45; 30,45</t>
+          <t>11,77; 30,65</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>1,99; 19,85</t>
+          <t>2,22; 19,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>104,37; 175,99</t>
+          <t>102,76; 171,68</t>
         </is>
       </c>
     </row>
